--- a/ESPN sports website/IPL/Mumbai Indians/Jaydev Unadkat.xlsx
+++ b/ESPN sports website/IPL/Mumbai Indians/Jaydev Unadkat.xlsx
@@ -480,31 +480,31 @@
         <v>Jaydev Unadkat</v>
       </c>
       <c r="C3" t="str">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D3" t="str">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="str">
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <v>233.33</v>
+        <v>211.11</v>
       </c>
       <c r="H3" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Chennai Super Kings</v>
       </c>
       <c r="I3" t="str">
-        <v>Brabourne</v>
+        <v>DY Patil</v>
       </c>
       <c r="J3" t="str">
-        <v>April 16, 2022</v>
+        <v>April 21, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Super Giants won by 18 runs</v>
+        <v>Super Kings won by 3 wickets</v>
       </c>
     </row>
     <row r="4">
@@ -515,31 +515,31 @@
         <v>Jaydev Unadkat</v>
       </c>
       <c r="C4" t="str">
+        <v>14</v>
+      </c>
+      <c r="D4" t="str">
+        <v>6</v>
+      </c>
+      <c r="E4" t="str">
+        <v>2</v>
+      </c>
+      <c r="F4" t="str">
         <v>1</v>
       </c>
-      <c r="D4" t="str">
-        <v>1</v>
-      </c>
-      <c r="E4" t="str">
-        <v>0</v>
-      </c>
-      <c r="F4" t="str">
-        <v>0</v>
-      </c>
       <c r="G4" t="str">
-        <v>100.00</v>
+        <v>233.33</v>
       </c>
       <c r="H4" t="str">
         <v>Lucknow Super Giants</v>
       </c>
       <c r="I4" t="str">
-        <v>Wankhede</v>
+        <v>Brabourne</v>
       </c>
       <c r="J4" t="str">
-        <v>April 24, 2022</v>
+        <v>April 16, 2022</v>
       </c>
       <c r="K4" t="str">
-        <v>Super Giants won by 36 runs</v>
+        <v>Super Giants won by 18 runs</v>
       </c>
     </row>
     <row r="5">
@@ -550,31 +550,31 @@
         <v>Jaydev Unadkat</v>
       </c>
       <c r="C5" t="str">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D5" t="str">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E5" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="str">
-        <v>211.11</v>
+        <v>100.00</v>
       </c>
       <c r="H5" t="str">
-        <v>Chennai Super Kings</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I5" t="str">
-        <v>DY Patil</v>
+        <v>Wankhede</v>
       </c>
       <c r="J5" t="str">
-        <v>April 21, 2022</v>
+        <v>April 24, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Super Kings won by 3 wickets</v>
+        <v>Super Giants won by 36 runs</v>
       </c>
     </row>
     <row r="6">
